--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H2">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J2">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.1400327313044</v>
+        <v>0.1176943333333333</v>
       </c>
       <c r="N2">
-        <v>1.1400327313044</v>
+        <v>0.353083</v>
       </c>
       <c r="O2">
-        <v>0.6135255060795004</v>
+        <v>0.05829606481791055</v>
       </c>
       <c r="P2">
-        <v>0.6135255060795004</v>
+        <v>0.05829606481791055</v>
       </c>
       <c r="Q2">
-        <v>1.858753190455909</v>
+        <v>0.2379297265547778</v>
       </c>
       <c r="R2">
-        <v>1.858753190455909</v>
+        <v>2.141367538993</v>
       </c>
       <c r="S2">
-        <v>0.005603090659486312</v>
+        <v>0.0006507370217243478</v>
       </c>
       <c r="T2">
-        <v>0.005603090659486312</v>
+        <v>0.0006507370217243479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.63043844217452</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H3">
-        <v>1.63043844217452</v>
+        <v>6.064771</v>
       </c>
       <c r="I3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J3">
-        <v>0.009132612424364743</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.718134076770691</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N3">
-        <v>0.718134076770691</v>
+        <v>3.54914</v>
       </c>
       <c r="O3">
-        <v>0.3864744939204997</v>
+        <v>0.5859837360842607</v>
       </c>
       <c r="P3">
-        <v>0.3864744939204997</v>
+        <v>0.5859837360842608</v>
       </c>
       <c r="Q3">
-        <v>1.170873405402443</v>
+        <v>2.391635705215556</v>
       </c>
       <c r="R3">
-        <v>1.170873405402443</v>
+        <v>21.52472134694</v>
       </c>
       <c r="S3">
-        <v>0.003529521764878431</v>
+        <v>0.006541115809265106</v>
       </c>
       <c r="T3">
-        <v>0.003529521764878431</v>
+        <v>0.006541115809265107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.1300695368319</v>
+        <v>2.021590333333334</v>
       </c>
       <c r="H4">
-        <v>25.1300695368319</v>
+        <v>6.064771</v>
       </c>
       <c r="I4">
-        <v>0.1407616376924553</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="J4">
-        <v>0.1407616376924553</v>
+        <v>0.01116262347650641</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1400327313044</v>
+        <v>0.718166</v>
       </c>
       <c r="N4">
-        <v>1.1400327313044</v>
+        <v>2.154498</v>
       </c>
       <c r="O4">
-        <v>0.6135255060795004</v>
+        <v>0.3557201990978286</v>
       </c>
       <c r="P4">
-        <v>0.6135255060795004</v>
+        <v>0.3557201990978286</v>
       </c>
       <c r="Q4">
-        <v>28.64910181194397</v>
+        <v>1.451837443328667</v>
       </c>
       <c r="R4">
-        <v>28.64910181194397</v>
+        <v>13.066536989958</v>
       </c>
       <c r="S4">
-        <v>0.08636085500184289</v>
+        <v>0.003970770645516957</v>
       </c>
       <c r="T4">
-        <v>0.08636085500184289</v>
+        <v>0.003970770645516957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.1300695368319</v>
+        <v>25.140634</v>
       </c>
       <c r="H5">
-        <v>25.1300695368319</v>
+        <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J5">
-        <v>0.1407616376924553</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.718134076770691</v>
+        <v>0.1176943333333333</v>
       </c>
       <c r="N5">
-        <v>0.718134076770691</v>
+        <v>0.353083</v>
       </c>
       <c r="O5">
-        <v>0.3864744939204997</v>
+        <v>0.05829606481791055</v>
       </c>
       <c r="P5">
-        <v>0.3864744939204997</v>
+        <v>0.05829606481791055</v>
       </c>
       <c r="Q5">
-        <v>18.04675928601604</v>
+        <v>2.958910158207333</v>
       </c>
       <c r="R5">
-        <v>18.04675928601604</v>
+        <v>26.630191423866</v>
       </c>
       <c r="S5">
-        <v>0.05440078269061237</v>
+        <v>0.008092609577552992</v>
       </c>
       <c r="T5">
-        <v>0.05440078269061237</v>
+        <v>0.00809260957755299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.768741529568</v>
+        <v>25.140634</v>
       </c>
       <c r="H6">
-        <v>151.768741529568</v>
+        <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.8501057498831799</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J6">
-        <v>0.8501057498831799</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.1400327313044</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N6">
-        <v>1.1400327313044</v>
+        <v>3.54914</v>
       </c>
       <c r="O6">
-        <v>0.6135255060795004</v>
+        <v>0.5859837360842607</v>
       </c>
       <c r="P6">
-        <v>0.6135255060795004</v>
+        <v>0.5859837360842608</v>
       </c>
       <c r="Q6">
-        <v>173.0213329325849</v>
+        <v>29.74254325158667</v>
       </c>
       <c r="R6">
-        <v>173.0213329325849</v>
+        <v>267.68288926428</v>
       </c>
       <c r="S6">
-        <v>0.5215615604181711</v>
+        <v>0.08134575823836442</v>
       </c>
       <c r="T6">
-        <v>0.5215615604181711</v>
+        <v>0.08134575823836442</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.768741529568</v>
+        <v>25.140634</v>
       </c>
       <c r="H7">
-        <v>151.768741529568</v>
+        <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.8501057498831799</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="J7">
-        <v>0.8501057498831799</v>
+        <v>0.1388191398995883</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.718134076770691</v>
+        <v>0.718166</v>
       </c>
       <c r="N7">
-        <v>0.718134076770691</v>
+        <v>2.154498</v>
       </c>
       <c r="O7">
-        <v>0.3864744939204997</v>
+        <v>0.3557201990978286</v>
       </c>
       <c r="P7">
-        <v>0.3864744939204997</v>
+        <v>0.3557201990978286</v>
       </c>
       <c r="Q7">
-        <v>108.9903050809859</v>
+        <v>18.055148557244</v>
       </c>
       <c r="R7">
-        <v>108.9903050809859</v>
+        <v>162.496337015196</v>
       </c>
       <c r="S7">
-        <v>0.3285441894650088</v>
+        <v>0.04938077208367088</v>
       </c>
       <c r="T7">
-        <v>0.3285441894650088</v>
+        <v>0.04938077208367087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>153.9412893333333</v>
+      </c>
+      <c r="H8">
+        <v>461.823868</v>
+      </c>
+      <c r="I8">
+        <v>0.8500182366239053</v>
+      </c>
+      <c r="J8">
+        <v>0.8500182366239052</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1176943333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.353083</v>
+      </c>
+      <c r="O8">
+        <v>0.05829606481791055</v>
+      </c>
+      <c r="P8">
+        <v>0.05829606481791055</v>
+      </c>
+      <c r="Q8">
+        <v>18.11801742056045</v>
+      </c>
+      <c r="R8">
+        <v>163.062156785044</v>
+      </c>
+      <c r="S8">
+        <v>0.0495527182186332</v>
+      </c>
+      <c r="T8">
+        <v>0.0495527182186332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>153.9412893333333</v>
+      </c>
+      <c r="H9">
+        <v>461.823868</v>
+      </c>
+      <c r="I9">
+        <v>0.8500182366239053</v>
+      </c>
+      <c r="J9">
+        <v>0.8500182366239052</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.183046666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.54914</v>
+      </c>
+      <c r="O9">
+        <v>0.5859837360842607</v>
+      </c>
+      <c r="P9">
+        <v>0.5859837360842608</v>
+      </c>
+      <c r="Q9">
+        <v>182.1197292081689</v>
+      </c>
+      <c r="R9">
+        <v>1639.07756287352</v>
+      </c>
+      <c r="S9">
+        <v>0.4980968620366312</v>
+      </c>
+      <c r="T9">
+        <v>0.4980968620366312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>153.9412893333333</v>
+      </c>
+      <c r="H10">
+        <v>461.823868</v>
+      </c>
+      <c r="I10">
+        <v>0.8500182366239053</v>
+      </c>
+      <c r="J10">
+        <v>0.8500182366239052</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.718166</v>
+      </c>
+      <c r="N10">
+        <v>2.154498</v>
+      </c>
+      <c r="O10">
+        <v>0.3557201990978286</v>
+      </c>
+      <c r="P10">
+        <v>0.3557201990978286</v>
+      </c>
+      <c r="Q10">
+        <v>110.5553999953627</v>
+      </c>
+      <c r="R10">
+        <v>994.9985999582639</v>
+      </c>
+      <c r="S10">
+        <v>0.3023686563686408</v>
+      </c>
+      <c r="T10">
+        <v>0.3023686563686408</v>
       </c>
     </row>
   </sheetData>
